--- a/biology/Médecine/Lame_superficielle_du_fascia_cervical/Lame_superficielle_du_fascia_cervical.xlsx
+++ b/biology/Médecine/Lame_superficielle_du_fascia_cervical/Lame_superficielle_du_fascia_cervical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame superficielle du fascia cervical (ou  aponévrose cervicale superficielle) est la partie la plus superficielle du fascia cervical.
 Il engaine le cou sur toute sa circonférence et recouvre l'ensemble des muscles superficiels antérieurs et postérieurs.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En avant, la lame superficielle du fascia cervical est située sous le muscle platysma.
 Par dédoublement, elle engaine les muscles sterno-cléido-mastoïdiens à l'avant et le muscle trapèze à l'arrière.
@@ -522,7 +536,7 @@
 Elle contribue également à la gaine du muscle digastrique.
 Elle s'épaissit entre l'angle de la mandibule et l'apophyse styloïde pour former le ligament stylo-mandibulaire.
 Parfois son bord supérieur s'ossifie formant ainsi un foramen par lequel passent les branches du nerf mandibulaire à destination des muscles masticateurs.
-Dans sa partie inférieure et au-dessus de l'incisure jugulaire, elle contribue à la constitution de l'espace suprasternal contenant du tissu cellulo-graisseux, la partie inférieure des veines jugulaires antérieures  et leur branche de connexion transversale, l'insertion sternale du muscle sterno-cléido-mastoïdien, et parfois un ganglion lymphatique[1].
+Dans sa partie inférieure et au-dessus de l'incisure jugulaire, elle contribue à la constitution de l'espace suprasternal contenant du tissu cellulo-graisseux, la partie inférieure des veines jugulaires antérieures  et leur branche de connexion transversale, l'insertion sternale du muscle sterno-cléido-mastoïdien, et parfois un ganglion lymphatique.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Insertions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En arrière[2], la lame superficielle du fascia cervical s'attache au ligament nuchal.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En arrière, la lame superficielle du fascia cervical s'attache au ligament nuchal.
 À l'avant, elle s'attache à l'os hyoïde.
 Son bord supérieur s'attache, d'arrière en avant :
 sur l'os occipital : à la protubérance occipitale externe et à la ligne nuchale supérieure ;
@@ -564,7 +580,7 @@
 Son bord inférieur s'attache, d'arrière en avant :
 à la colonne vertébrale et au bord postérieur de l'épine de la scapula ;
 à la face supérieure de la clavicule ;
-sur le sternum : le bord antérieur de l'incisure jugulaire et la face antérieure du manubrium sternal[3].</t>
+sur le sternum : le bord antérieur de l'incisure jugulaire et la face antérieure du manubrium sternal.</t>
         </is>
       </c>
     </row>
@@ -592,9 +608,11 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré par certaines sources comme incomplet[4] ou inexistant[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré par certaines sources comme incomplet ou inexistant.
 </t>
         </is>
       </c>
